--- a/medicine/Mort/Cimetières_de_la_Croix-Rousse/Cimetières_de_la_Croix-Rousse.xlsx
+++ b/medicine/Mort/Cimetières_de_la_Croix-Rousse/Cimetières_de_la_Croix-Rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_de_la_Croix-Rousse</t>
+          <t>Cimetières_de_la_Croix-Rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cimetières de la Croix-Rousse, ou cimetière de la Croix-Rousse, est un ensemble de deux cimetières lyonnais situé dans le 4e arrondissement de Lyon : le nouveau cimetière (au sud) et l'ancien cimetière (au nord) séparés par la rue d'Ypres.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_de_la_Croix-Rousse</t>
+          <t>Cimetières_de_la_Croix-Rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de la Croix-Rousse a été aménagé en 1823 d'après les plans de l'architecte Antoine-Marie Chenavard[1].
-Le terrain utilisé pour la construction du cimetière a été cédé à la Croix-Rousse par la commune voisine de Caluire-et-Cuire sur proposition du Préfet du Rhône. Cela nécessita une modification de la limite entre les deux communes, l'actuelle rue du Bois de la Caille[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de la Croix-Rousse a été aménagé en 1823 d'après les plans de l'architecte Antoine-Marie Chenavard.
+Le terrain utilisé pour la construction du cimetière a été cédé à la Croix-Rousse par la commune voisine de Caluire-et-Cuire sur proposition du Préfet du Rhône. Cela nécessita une modification de la limite entre les deux communes, l'actuelle rue du Bois de la Caille.
 Le cimetière est devenu propriété de la ville de Lyon en 1852, lors du rattachement de la Croix-Rousse.
 Il se verra adjoindre une seconde partie que l’on nomme aujourd’hui le « nouveau cimetière », dont l'entrée fut construite d'après les plans de l'architecte Pierre Bourdeix.
-En 1990, les deux cimetières comptaient plus de 40 000 tombes[3].
+En 1990, les deux cimetières comptaient plus de 40 000 tombes.
 			Entrée de l'ancien cimetière.
 			Entrée du nouveau cimetière.
 			Une allée du nouveau cimetière.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_de_la_Croix-Rousse</t>
+          <t>Cimetières_de_la_Croix-Rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Joannès Ambre, 6e division.
